--- a/TechReport/calc.xlsx
+++ b/TechReport/calc.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>дисконтированный доход года</t>
   </si>
@@ -106,6 +106,12 @@
   </si>
   <si>
     <t>Ри</t>
+  </si>
+  <si>
+    <t>Пчср</t>
+  </si>
+  <si>
+    <t>РиГГ</t>
   </si>
 </sst>
 </file>
@@ -426,8 +432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H16" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,7 +471,7 @@
       </c>
       <c r="P2">
         <f>C18</f>
-        <v>400</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="12:16" x14ac:dyDescent="0.25">
@@ -481,7 +487,7 @@
       </c>
       <c r="P3">
         <f>P1/P2</f>
-        <v>0.37969549999999996</v>
+        <v>0.55228436363636357</v>
       </c>
     </row>
     <row r="5" spans="12:16" x14ac:dyDescent="0.25">
@@ -505,8 +511,8 @@
         <v>4</v>
       </c>
       <c r="P7">
-        <f>P5-P6*P5/(1-P6)-P3</f>
-        <v>0.37030450000000004</v>
+        <f>P5-P6*P5/(1+P6)-P3</f>
+        <v>0.28104896969696969</v>
       </c>
     </row>
     <row r="8" spans="12:16" x14ac:dyDescent="0.25">
@@ -515,7 +521,7 @@
       </c>
       <c r="P8">
         <f>P7*P2</f>
-        <v>148.12180000000001</v>
+        <v>77.288466666666665</v>
       </c>
     </row>
     <row r="9" spans="12:16" x14ac:dyDescent="0.25">
@@ -524,7 +530,7 @@
       </c>
       <c r="P9">
         <f>P8/P1</f>
-        <v>0.97526702318041703</v>
+        <v>0.50888453159615188</v>
       </c>
     </row>
     <row r="10" spans="12:16" x14ac:dyDescent="0.25">
@@ -533,7 +539,7 @@
       </c>
       <c r="P10">
         <f>P8*(1-0.18)</f>
-        <v>121.45987600000001</v>
+        <v>63.376542666666673</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
@@ -561,23 +567,23 @@
         <v>12</v>
       </c>
       <c r="C18">
-        <v>400</v>
+        <v>275</v>
       </c>
       <c r="D18">
         <f>C18</f>
-        <v>400</v>
+        <v>275</v>
       </c>
       <c r="E18">
         <f t="shared" ref="E18:F18" si="0">D18</f>
-        <v>400</v>
+        <v>275</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>275</v>
       </c>
       <c r="G18">
         <f>SUM(C18:F18)</f>
-        <v>1600</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
@@ -589,19 +595,19 @@
       </c>
       <c r="C19">
         <f>ЧП</f>
-        <v>121.45987600000001</v>
+        <v>63.376542666666673</v>
       </c>
       <c r="D19">
         <f>ЧП</f>
-        <v>121.45987600000001</v>
+        <v>63.376542666666673</v>
       </c>
       <c r="E19">
         <f>ЧП</f>
-        <v>121.45987600000001</v>
+        <v>63.376542666666673</v>
       </c>
       <c r="F19">
         <f>ЧП</f>
-        <v>121.45987600000001</v>
+        <v>63.376542666666673</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
@@ -613,23 +619,23 @@
       </c>
       <c r="C20">
         <f>C19*C30</f>
-        <v>86.75705428571429</v>
+        <v>63.376542666666673</v>
       </c>
       <c r="D20">
         <f t="shared" ref="D20:F20" si="1">D19*D30</f>
-        <v>61.969324489795937</v>
+        <v>45.268959047619056</v>
       </c>
       <c r="E20">
         <f t="shared" si="1"/>
-        <v>44.263803206997096</v>
+        <v>32.334970748299334</v>
       </c>
       <c r="F20">
         <f t="shared" si="1"/>
-        <v>31.617002290712215</v>
+        <v>23.096407677356666</v>
       </c>
       <c r="G20">
         <f>SUM(B20:F20)</f>
-        <v>224.60718427321953</v>
+        <v>164.07688013994172</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
@@ -682,11 +688,11 @@
         <v>151.87819999999999</v>
       </c>
       <c r="C24">
-        <f t="shared" ref="C24:F24" si="2">SUM(C22:C23)</f>
-        <v>0</v>
+        <f>B24</f>
+        <v>151.87819999999999</v>
       </c>
       <c r="D24">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="C24:F24" si="2">SUM(D22:D23)</f>
         <v>0</v>
       </c>
       <c r="E24">
@@ -708,7 +714,7 @@
       </c>
       <c r="C25">
         <f>C24*C30</f>
-        <v>0</v>
+        <v>151.87819999999999</v>
       </c>
       <c r="D25">
         <f t="shared" ref="D25:F25" si="3">D24*D30</f>
@@ -724,7 +730,23 @@
       </c>
       <c r="G25">
         <f>SUM(B25:F25)</f>
-        <v>151.87819999999999</v>
+        <v>303.75639999999999</v>
+      </c>
+      <c r="O25" t="s">
+        <v>26</v>
+      </c>
+      <c r="P25">
+        <f>C19</f>
+        <v>63.376542666666673</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O26" t="s">
+        <v>27</v>
+      </c>
+      <c r="P26">
+        <f>P25/P1</f>
+        <v>0.41728531590884455</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
@@ -737,26 +759,26 @@
       </c>
       <c r="C27">
         <f t="shared" ref="C27:F27" si="4">C20-C25</f>
-        <v>86.75705428571429</v>
+        <v>-88.501657333333327</v>
       </c>
       <c r="D27">
         <f t="shared" si="4"/>
-        <v>61.969324489795937</v>
+        <v>45.268959047619056</v>
       </c>
       <c r="E27">
         <f t="shared" si="4"/>
-        <v>44.263803206997096</v>
+        <v>32.334970748299334</v>
       </c>
       <c r="F27">
         <f t="shared" si="4"/>
-        <v>31.617002290712215</v>
+        <v>23.096407677356666</v>
       </c>
       <c r="O27" t="s">
         <v>25</v>
       </c>
       <c r="P27">
         <f>G20/G25*100</f>
-        <v>147.88638808809924</v>
+        <v>54.015941767792128</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
@@ -768,27 +790,27 @@
         <v>-151.87819999999999</v>
       </c>
       <c r="C28">
-        <f>B28+C27</f>
-        <v>-65.121145714285703</v>
+        <f>C27</f>
+        <v>-88.501657333333327</v>
       </c>
       <c r="D28">
         <f>C28+D27</f>
-        <v>-3.1518212244897654</v>
+        <v>-43.232698285714271</v>
       </c>
       <c r="E28">
         <f t="shared" ref="E28:F28" si="5">D28+E27</f>
-        <v>41.111981982507331</v>
+        <v>-10.897727537414937</v>
       </c>
       <c r="F28">
         <f t="shared" si="5"/>
-        <v>72.728984273219538</v>
+        <v>12.198680139941729</v>
       </c>
       <c r="O28" t="s">
         <v>2</v>
       </c>
       <c r="P28">
         <f>F28</f>
-        <v>72.728984273219538</v>
+        <v>12.198680139941729</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
@@ -800,20 +822,20 @@
         <v>1</v>
       </c>
       <c r="C30">
-        <f>POWER(1+En,0-C17)</f>
+        <f>POWER(1+En,1-C17)</f>
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <f>POWER(1+En,1-D17)</f>
         <v>0.7142857142857143</v>
       </c>
-      <c r="D30">
-        <f>POWER(1+En,0-D17)</f>
+      <c r="E30">
+        <f>POWER(1+En,1-E17)</f>
         <v>0.51020408163265318</v>
       </c>
-      <c r="E30">
-        <f>POWER(1+En,0-E17)</f>
+      <c r="F30">
+        <f>POWER(1+En,1-F17)</f>
         <v>0.36443148688046656</v>
-      </c>
-      <c r="F30">
-        <f>POWER(1+En,0-F17)</f>
-        <v>0.26030820491461898</v>
       </c>
       <c r="I30" t="s">
         <v>3</v>

--- a/TechReport/calc.xlsx
+++ b/TechReport/calc.xlsx
@@ -432,8 +432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,8 +470,7 @@
         <v>11</v>
       </c>
       <c r="P2">
-        <f>C18</f>
-        <v>275</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="12:16" x14ac:dyDescent="0.25">
@@ -487,7 +486,7 @@
       </c>
       <c r="P3">
         <f>P1/P2</f>
-        <v>0.55228436363636357</v>
+        <v>0.50626066666666669</v>
       </c>
     </row>
     <row r="5" spans="12:16" x14ac:dyDescent="0.25">
@@ -512,7 +511,7 @@
       </c>
       <c r="P7">
         <f>P5-P6*P5/(1+P6)-P3</f>
-        <v>0.28104896969696969</v>
+        <v>0.32707266666666657</v>
       </c>
     </row>
     <row r="8" spans="12:16" x14ac:dyDescent="0.25">
@@ -521,7 +520,7 @@
       </c>
       <c r="P8">
         <f>P7*P2</f>
-        <v>77.288466666666665</v>
+        <v>98.121799999999965</v>
       </c>
     </row>
     <row r="9" spans="12:16" x14ac:dyDescent="0.25">
@@ -530,7 +529,7 @@
       </c>
       <c r="P9">
         <f>P8/P1</f>
-        <v>0.50888453159615188</v>
+        <v>0.64605585265034726</v>
       </c>
     </row>
     <row r="10" spans="12:16" x14ac:dyDescent="0.25">
@@ -539,7 +538,7 @@
       </c>
       <c r="P10">
         <f>P8*(1-0.18)</f>
-        <v>63.376542666666673</v>
+        <v>80.45987599999998</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
@@ -567,23 +566,24 @@
         <v>12</v>
       </c>
       <c r="C18">
-        <v>275</v>
+        <f>P2/2</f>
+        <v>150</v>
       </c>
       <c r="D18">
-        <f>C18</f>
-        <v>275</v>
+        <f>P2</f>
+        <v>300</v>
       </c>
       <c r="E18">
         <f t="shared" ref="E18:F18" si="0">D18</f>
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="G18">
         <f>SUM(C18:F18)</f>
-        <v>1100</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
@@ -594,20 +594,24 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <f>ЧП</f>
-        <v>63.376542666666673</v>
+        <f>ЧП/2</f>
+        <v>40.22993799999999</v>
       </c>
       <c r="D19">
         <f>ЧП</f>
-        <v>63.376542666666673</v>
+        <v>80.45987599999998</v>
       </c>
       <c r="E19">
         <f>ЧП</f>
-        <v>63.376542666666673</v>
+        <v>80.45987599999998</v>
       </c>
       <c r="F19">
         <f>ЧП</f>
-        <v>63.376542666666673</v>
+        <v>80.45987599999998</v>
+      </c>
+      <c r="G19">
+        <f>SUM(B19:F19)</f>
+        <v>281.60956599999997</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
@@ -619,23 +623,23 @@
       </c>
       <c r="C20">
         <f>C19*C30</f>
-        <v>63.376542666666673</v>
+        <v>40.22993799999999</v>
       </c>
       <c r="D20">
         <f t="shared" ref="D20:F20" si="1">D19*D30</f>
-        <v>45.268959047619056</v>
+        <v>57.471339999999984</v>
       </c>
       <c r="E20">
         <f t="shared" si="1"/>
-        <v>32.334970748299334</v>
+        <v>41.050957142857143</v>
       </c>
       <c r="F20">
         <f t="shared" si="1"/>
-        <v>23.096407677356666</v>
+        <v>29.322112244897959</v>
       </c>
       <c r="G20">
         <f>SUM(B20:F20)</f>
-        <v>164.07688013994172</v>
+        <v>168.07434738775507</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
@@ -678,6 +682,10 @@
       <c r="F23">
         <v>0</v>
       </c>
+      <c r="P23">
+        <f>G19/4</f>
+        <v>70.402391499999993</v>
+      </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -692,7 +700,7 @@
         <v>151.87819999999999</v>
       </c>
       <c r="D24">
-        <f t="shared" ref="C24:F24" si="2">SUM(D22:D23)</f>
+        <f t="shared" ref="D24:F24" si="2">SUM(D22:D23)</f>
         <v>0</v>
       </c>
       <c r="E24">
@@ -737,7 +745,7 @@
       </c>
       <c r="P25">
         <f>C19</f>
-        <v>63.376542666666673</v>
+        <v>40.22993799999999</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
@@ -745,8 +753,8 @@
         <v>27</v>
       </c>
       <c r="P26">
-        <f>P25/P1</f>
-        <v>0.41728531590884455</v>
+        <f>F19/P1</f>
+        <v>0.52976579917328481</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
@@ -759,26 +767,26 @@
       </c>
       <c r="C27">
         <f t="shared" ref="C27:F27" si="4">C20-C25</f>
-        <v>-88.501657333333327</v>
+        <v>-111.648262</v>
       </c>
       <c r="D27">
         <f t="shared" si="4"/>
-        <v>45.268959047619056</v>
+        <v>57.471339999999984</v>
       </c>
       <c r="E27">
         <f t="shared" si="4"/>
-        <v>32.334970748299334</v>
+        <v>41.050957142857143</v>
       </c>
       <c r="F27">
         <f t="shared" si="4"/>
-        <v>23.096407677356666</v>
+        <v>29.322112244897959</v>
       </c>
       <c r="O27" t="s">
         <v>25</v>
       </c>
       <c r="P27">
         <f>G20/G25*100</f>
-        <v>54.015941767792128</v>
+        <v>55.331952639600381</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
@@ -791,26 +799,26 @@
       </c>
       <c r="C28">
         <f>C27</f>
-        <v>-88.501657333333327</v>
+        <v>-111.648262</v>
       </c>
       <c r="D28">
         <f>C28+D27</f>
-        <v>-43.232698285714271</v>
+        <v>-54.176922000000019</v>
       </c>
       <c r="E28">
         <f t="shared" ref="E28:F28" si="5">D28+E27</f>
-        <v>-10.897727537414937</v>
+        <v>-13.125964857142876</v>
       </c>
       <c r="F28">
         <f t="shared" si="5"/>
-        <v>12.198680139941729</v>
+        <v>16.196147387755083</v>
       </c>
       <c r="O28" t="s">
         <v>2</v>
       </c>
       <c r="P28">
         <f>F28</f>
-        <v>12.198680139941729</v>
+        <v>16.196147387755083</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">

--- a/TechReport/calc.xlsx
+++ b/TechReport/calc.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\image_stitcher\TechReport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\image_stitcher\TechReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18285" windowHeight="6930"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -432,8 +432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -753,8 +753,8 @@
         <v>27</v>
       </c>
       <c r="P26">
-        <f>F19/P1</f>
-        <v>0.52976579917328481</v>
+        <f>P23/P1</f>
+        <v>0.46354507427662428</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
